--- a/biology/Médecine/1761_en_santé_et_médecine/1761_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1761_en_santé_et_médecine/1761_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1761_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1761_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1761 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1761_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1761_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4 août : grâce à l'initiative de Claude Bourgelat et le soutien de Louis XV, création par décret du Conseil d’État de l'École royale vétérinaire de Lyon, première du genre[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4 août : grâce à l'initiative de Claude Bourgelat et le soutien de Louis XV, création par décret du Conseil d’État de l'École royale vétérinaire de Lyon, première du genre.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1761_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1761_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,11 +555,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Léopold Avenbrugger : Inventum novum ex percussione thoracis humani[2]. Il publie son invention de l'examen clinique des poumons par la percussion du thorax, découverte qui lui vaut d'être considéré comme l'un des fondateurs de la médecine moderne[3].
-Jean-Baptiste Morgagni : De Sedibus et causis morborum per anatomem indagatis (« Recherches anatomiques sur le siège et les causes des maladies »), à Padoue, ouvrage précurseur en anatomopathologie moderne[4].
-Auguste Tissot : Avis au peuple sur sa santé[5], àLausanne, un des premiers ouvrages traitant de médecine sociale et de santé publique[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Léopold Avenbrugger : Inventum novum ex percussione thoracis humani. Il publie son invention de l'examen clinique des poumons par la percussion du thorax, découverte qui lui vaut d'être considéré comme l'un des fondateurs de la médecine moderne.
+Jean-Baptiste Morgagni : De Sedibus et causis morborum per anatomem indagatis (« Recherches anatomiques sur le siège et les causes des maladies »), à Padoue, ouvrage précurseur en anatomopathologie moderne.
+Auguste Tissot : Avis au peuple sur sa santé, àLausanne, un des premiers ouvrages traitant de médecine sociale et de santé publique.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1761_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1761_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>19 janvier : Auguste Broussonet (mort en 1807), médecin et naturaliste français.
 14 février : Luigi Brugnatelli (mort en 1818), médecin et chimiste italien.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1761_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1761_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,12 +625,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">4 janvier : Stephen Hales (né en 1677), physiologiste britannique.
 13 janvier : Franz Christoph Janneck (né en 1703), peintre autrichien, auteur de L'Alchimiste médical.
-20 janvier : Jean-Baptiste Bianchi (né en 1681), anatomiste italien[7].
-21 mars : Pierre Fauchard (né en 1679), dentiste français, « mondialement connu et reconnu en tant que « père de la chirurgie dentaire[8] ».
+20 janvier : Jean-Baptiste Bianchi (né en 1681), anatomiste italien.
+21 mars : Pierre Fauchard (né en 1679), dentiste français, « mondialement connu et reconnu en tant que « père de la chirurgie dentaire ».
 Carl Fredrik Adler (né en 1720), médecin et botaniste suédois.
 Joshua Ward (en) (né en 1685), médecin anglais.
 </t>
